--- a/Parababnk/Reports/UserTestData.xlsx
+++ b/Parababnk/Reports/UserTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B208B24-FE2D-4B93-937B-353898F3E3E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4308DED-A1C3-43D5-9452-FCC7F1950EA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>USERNAME</t>
   </si>
@@ -43,22 +43,25 @@
     <t>AF20206</t>
   </si>
   <si>
-    <t>Devil_1234</t>
-  </si>
-  <si>
-    <t>Devil_1235</t>
-  </si>
-  <si>
-    <t>Devil_1236</t>
-  </si>
-  <si>
-    <t>Devil_1231</t>
-  </si>
-  <si>
-    <t>Devil_1232</t>
-  </si>
-  <si>
-    <t>Devil_1233</t>
+    <t>BANKER_ID</t>
+  </si>
+  <si>
+    <t>devil120031</t>
+  </si>
+  <si>
+    <t>devil120032</t>
+  </si>
+  <si>
+    <t>devil120033</t>
+  </si>
+  <si>
+    <t>devil120034</t>
+  </si>
+  <si>
+    <t>devil120035</t>
+  </si>
+  <si>
+    <t>devil120036</t>
   </si>
 </sst>
 </file>
@@ -114,10 +117,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,72 +465,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>12345678</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>12345679</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>123456710</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>123456711</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>123456712</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>123456713</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
